--- a/topic_split/topic_18.xlsx
+++ b/topic_split/topic_18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>issue</t>
   </si>
@@ -22,41 +22,45 @@
     <t>topic</t>
   </si>
   <si>
-    <t>confidence_score</t>
+    <t xml:space="preserve">Add linkage to information about IFRC event leveling (i.e. Crisis Categorisation)
+**Is your feature request related to a problem? Please describe.**
+Feature request to add contextual information to the disaster categorization field.
+**Describe the solution you'd like**
+I've spoken to users that are confused about the "Disaster Categorization" field under Emergency Overview on emergency pages. I think either converting that label to a link, or having help text icon (accessible via hover) that provides access to guidance on the definitions and implications of each color code would be helpful. 
+**Additional context**
+![Screen Shot 2021-09-01 at 6 11 11 PM](https://user-images.githubusercontent.com/8890661/131752100-fcdd0431-e0e9-448a-b31f-6ba91ccfabd8.png)
+These two documents capture the information I'd like to have accessible:
+[IFRC Global Tools Review Final Report.pdf](https://github.com/IFRCGo/go-frontend/files/7094653/IFRC.Global.Tools.Review.Final.Report.pdf)
+[IFRC Leading Emergency Assessment and Planning.pdf](https://github.com/IFRCGo/go-frontend/files/7094654/IFRC.Leading.Emergency.Assessment.and.Planning.pdf)
+On the “IFRC Global Tools Review Final Report English” doc, check page 7. On “IFRC LEAP approach Sept. 2018”, check page 33.
+**Should there be any restrictions around viewing or updating information related to this feature**
+No
+</t>
   </si>
   <si>
-    <t>[0.01377465 0.00854905 0.01139663 0.00835356 0.01287518 0.02199662
- 0.07073841 0.04147311 0.01539803 0.01640812 0.03373415 0.01296142
- 0.02892514 0.01118932 0.11897226 0.01716677 0.02386516 0.31638668
- 0.02108012 0.02347253 0.01683232 0.02615186 0.02574305 0.01975565
- 0.01807163]</t>
+    <t>User registration: Ask for phone number in international format
+## Is your feature request related to a problem? Please describe.
+Currently, there doesn't seem to be any (even rudimentary) format validation or sanitization of the phone number field in the user registration form. E.g. this is considered a valid phone number by GO: `+358(0)555-86.43/23`.
+## Describe the solution you'd like
+Assuming we'd want to store [E.164](https://en.wikipedia.org/wiki/E.164)-compliant phone numbers, implement [intl-tel-input](https://github.com/jackocnr/intl-tel-input) plugin developed by Twilio (see [article](https://www.twilio.com/en-us/blog/international-phone-number-input-html-javascript)).
+## Describe alternatives you've considered
+1. Provide an example of the format we want users to type their phone number in
+2. Implement a regex (`^\+[1-9]\d{1,14}$`) that ensures phone numbers
+   - start with a + character
+   - don't accept any parentheses, hyphens, dots, forward slashes, or other common delimiters
+   - don't accept any alphabetic characters</t>
   </si>
   <si>
-    <t>[3.73540523e-308 2.31304217e-308 3.00760875e-308 2.26956909e-308
- 3.40822527e-308 5.86825330e-308 1.49749845e-307 1.05785730e-307
- 3.98743464e-308 4.21495463e-308 8.20917559e-308 3.36545665e-308
- 7.18276716e-308 3.00682872e-308 2.62458997e-307 4.36928143e-308
- 6.30182513e-308 1.00000000e+000 5.23082583e-308 5.81237228e-308
- 4.35831323e-308 6.46252608e-308 6.61898555e-308 5.03783786e-308
- 4.54196199e-308]</t>
-  </si>
-  <si>
-    <t>[3.88696252e-308 2.26700207e-308 3.00124077e-308 2.21556720e-308
- 3.54170384e-308 6.28872537e-308 1.52469684e-307 1.10674246e-307
- 3.99728096e-308 4.30843797e-308 8.70203599e-308 3.38874719e-308
- 7.00672433e-308 2.93595085e-308 2.80566497e-307 4.52030521e-308
- 6.81066132e-308 1.00000000e+000 5.46459058e-308 5.97704018e-308
- 4.35505891e-308 6.95013650e-308 6.69828598e-308 5.14369846e-308
- 4.59216835e-308]</t>
-  </si>
-  <si>
-    <t>[3.76624339e-308 2.33662506e-308 3.02650718e-308 2.28917888e-308
- 3.43021603e-308 5.90009742e-308 1.62971757e-307 1.06792967e-307
- 4.02448741e-308 4.29840715e-308 8.33963901e-308 3.39596719e-308
- 7.39939989e-308 3.04955519e-308 2.76590354e-307 4.45662620e-308
- 6.40194156e-308 1.00000000e+000 5.37645573e-308 6.00271699e-308
- 4.40575997e-308 6.66477870e-308 6.75118121e-308 5.16397719e-308
- 4.63114478e-308]</t>
+    <t xml:space="preserve">Emergency page: Response documents: Add date field and use it to show the latest documents first
+## Is your feature request related to a problem? Please describe.
+When an emergency has [many documents](https://go.ifrc.org/emergencies/5854/reports), it is difficult to find the latest documents and to understand when each document was published.
+## Describe the solution you'd like
+Add a date field for each document in the admin panel and use it sort the documents so that the latest ones show up on the list first. Currently they're shown in wrong order (oldest first).
+![image](https://github.com/IFRCGo/go-web-app/assets/15220593/23781b3e-a615-42f0-95c9-b8b43e2b7e5c)
+# Describe alternatives you've considered
+Some persons add a date to the file name manually but it's a sketchy solution and prone to people forgetting to do it manually every time they add a new document.
+![image](https://github.com/IFRCGo/go-web-app/assets/15220593/6a8cc750-ddc2-4b60-8295-77b08f3d13a4)
+</t>
   </si>
 </sst>
 </file>
@@ -414,65 +418,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>44</v>
       </c>
       <c r="B2">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>95</v>
       </c>
       <c r="B3">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>96</v>
       </c>
       <c r="B4">
         <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>172</v>
-      </c>
-      <c r="B5">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
